--- a/Weekly Overview.xlsx
+++ b/Weekly Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\QA_Engineer Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A232FE15-E49B-4B64-8C08-0F8F8A1009AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45466F5-E1E8-4302-A19D-206150CF504C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3C84ECFC-5CCE-4CBA-AECC-35882E21E817}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
   <si>
     <t xml:space="preserve">WEEK NO </t>
   </si>
@@ -88,6 +88,111 @@
   </si>
   <si>
     <t>Test Completion</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>What is SDLC</t>
+  </si>
+  <si>
+    <t>What is STLC</t>
+  </si>
+  <si>
+    <t>SDLC Models - Waterfall, Spiral, V, Agile</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>How to derive expected result</t>
+  </si>
+  <si>
+    <t>Test Case format</t>
+  </si>
+  <si>
+    <t>Important aspects of Test Cases</t>
+  </si>
+  <si>
+    <t>Software testing Levels &amp; Types</t>
+  </si>
+  <si>
+    <t>Maintenance Testing</t>
+  </si>
+  <si>
+    <t>Software Quality - QA (Static) &amp; QC (Dynamic)</t>
+  </si>
+  <si>
+    <t>Review Process</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>WEEK NO - 2</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Testing Methods Black box</t>
+  </si>
+  <si>
+    <t>Black box techniques</t>
+  </si>
+  <si>
+    <t>Decision Tables</t>
+  </si>
+  <si>
+    <t>White box testing</t>
+  </si>
+  <si>
+    <t>Grey box testing &amp; comparison</t>
+  </si>
+  <si>
+    <t>Test Organisation</t>
+  </si>
+  <si>
+    <t>Test Estimation</t>
+  </si>
+  <si>
+    <t>How to decide priority</t>
+  </si>
+  <si>
+    <t>Test Monitoring &amp; Control</t>
+  </si>
+  <si>
+    <t>Test Progress</t>
+  </si>
+  <si>
+    <t>Configuration Management</t>
+  </si>
+  <si>
+    <t>Risk &amp; Testing</t>
+  </si>
+  <si>
+    <t>What is defect</t>
+  </si>
+  <si>
+    <t>Defect Priority &amp; Severity</t>
+  </si>
+  <si>
+    <t>Defect Life Cycle</t>
+  </si>
+  <si>
+    <t>Attributes of defect</t>
+  </si>
+  <si>
+    <t>Stubs &amp; Drivers</t>
+  </si>
+  <si>
+    <t>Types of Test Tools</t>
+  </si>
+  <si>
+    <t>Effective Use of Tools</t>
+  </si>
+  <si>
+    <t>Introducing Tool into Organisation</t>
   </si>
 </sst>
 </file>
@@ -132,7 +237,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -155,16 +260,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C708FF07-481E-4429-ABAD-72068470C6F5}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,10 +658,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>44474</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -522,8 +672,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3">
         <v>44474</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -534,8 +684,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3">
         <v>44474</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -546,8 +696,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3">
         <v>44475</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -558,8 +708,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3">
         <v>44475</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -570,8 +720,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3">
         <v>44476</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -582,8 +732,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="3">
         <v>44476</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -594,8 +744,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="3">
         <v>44476</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -606,8 +756,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3">
         <v>44476</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -618,8 +768,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3">
         <v>44476</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -630,8 +780,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3">
         <v>44476</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -642,98 +792,582 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3">
         <v>44477</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="3">
+        <v>44477</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="3">
+        <v>44477</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="3">
+        <v>44478</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="3">
+        <v>44478</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="3">
+        <v>44478</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="3">
+        <v>44478</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="3">
+        <v>44478</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="3">
+        <v>44478</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="3">
+        <v>44478</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="3">
+        <v>44478</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44480</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="3">
+        <v>44480</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="3">
+        <v>44480</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="3">
+        <v>44480</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3">
+        <v>44480</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="3">
+        <v>44481</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="3">
+        <v>44481</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="3">
+        <v>44481</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="3">
+        <v>44481</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="3">
+        <v>44481</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="3">
+        <v>44481</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="3">
+        <v>44482</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="3">
+        <v>44482</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="3">
+        <v>44482</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="3">
+        <v>44482</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="3">
+        <v>44482</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="3">
+        <v>44483</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="3">
+        <v>44483</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="3">
+        <v>44483</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="3">
+        <v>44483</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="A24:A43"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
